--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW20.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW20.xlsx
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>4.492950002079</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.9432500002449999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -7095,37 +7095,37 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="D185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="E185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="F185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="G185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="I185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="J185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="K185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
       <c r="L185" t="n">
-        <v>3.2580118417770008</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="D187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="E187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="G187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="I187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="J187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="K187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
       <c r="L187" t="n">
-        <v>4.706017104789001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="D199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="F199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="G199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="I199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="J199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="K199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
       <c r="L199" t="n">
-        <v>1.5468749995875</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.29687499992083327</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="D213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="F213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="G213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="I213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="K213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
       <c r="L213" t="n">
-        <v>1.2308999995380001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="C299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="E299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="F299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="G299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="I299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="J299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="K299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="L299" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
@@ -14163,37 +14163,37 @@
         <v>370.0</v>
       </c>
       <c r="B371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="C371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="D371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="E371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="F371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="G371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="H371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="I371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="J371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="K371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
       <c r="L371" t="n">
-        <v>2.764705263012</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="D397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="E397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="F397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="G397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="H397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="I397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="J397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="K397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
       <c r="L397" t="n">
-        <v>1.433415789036</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -15721,37 +15721,37 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="D412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="E412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="G412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="H412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="I412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="J412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="L412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="E513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="I513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="K513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="L513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="C549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="D549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="E549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="F549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="G549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="H549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="I549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="J549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="K549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
       <c r="L549" t="n">
-        <v>0.9984671054820001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -21193,37 +21193,37 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="C556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="D556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="E556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="F556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="G556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="H556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="I556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="J556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="K556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
       <c r="L556" t="n">
-        <v>1.5963750005775</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="C559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="D559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="E559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="F559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="G559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="H559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="I559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="J559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="K559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
       <c r="L559" t="n">
-        <v>0.9530500004409999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="560">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="C568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="D568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="E568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="F568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="G568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="H568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="I568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="J568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="K568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
       <c r="L568" t="n">
-        <v>6.635475001039499</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="569">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="C593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="D593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="E593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="F593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="G593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="H593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="I593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="J593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="K593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
       <c r="L593" t="n">
-        <v>3.1562499991583333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
